--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -497,12 +497,12 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="1"/>
@@ -558,17 +558,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
       <c r="A5" s="6"/>
@@ -587,17 +587,17 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -605,15 +605,15 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -635,22 +635,22 @@
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="27">
       <c r="A10" s="6"/>
@@ -658,17 +658,17 @@
         <v>2</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="6"/>
@@ -676,16 +676,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:19">

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN Nguyễn Thị Thắm</t>
   </si>
@@ -47,61 +47,64 @@
     <t>Sáng</t>
   </si>
   <si>
+    <t>Âm nhạc-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-4B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-3A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2B</t>
+  </si>
+  <si>
     <t>Lịch sử-5B</t>
   </si>
   <si>
-    <t>Lịch sử-5A</t>
+    <t>Âm nhạc-5B</t>
+  </si>
+  <si>
+    <t>Địa lý-5B</t>
+  </si>
+  <si>
+    <t>L T Việt-2B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-3B</t>
+  </si>
+  <si>
+    <t>Chiều</t>
+  </si>
+  <si>
+    <t>L T Việt-2A</t>
   </si>
   <si>
     <t>Địa lý-5A</t>
   </si>
   <si>
-    <t>Âm nhạc-3A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2A</t>
-  </si>
-  <si>
     <t>Địa lý-4B</t>
   </si>
   <si>
-    <t>L T Việt-2B</t>
+    <t>Âm nhạc-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
   </si>
   <si>
     <t>Âm nhạc-4B</t>
   </si>
   <si>
-    <t>Âm nhạc-1B</t>
-  </si>
-  <si>
-    <t>Chiều</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5A</t>
-  </si>
-  <si>
-    <t>Âm nhạc-4A</t>
-  </si>
-  <si>
-    <t>Âm nhạc-2B</t>
-  </si>
-  <si>
-    <t>Đạo đức-2B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5B</t>
-  </si>
-  <si>
     <t>Âm nhạc-2A</t>
-  </si>
-  <si>
-    <t>Âm nhạc-3B</t>
-  </si>
-  <si>
-    <t>Địa lý-5B</t>
-  </si>
-  <si>
-    <t>L T Việt-2A</t>
   </si>
   <si>
     <t>Âm nhạc-1A</t>
@@ -503,9 +506,9 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
@@ -564,16 +567,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
@@ -582,11 +579,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -596,16 +597,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -616,12 +619,18 @@
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -638,22 +647,20 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -664,16 +671,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:19">
@@ -681,15 +686,15 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN Nguyễn Thị Thắm</t>
   </si>
@@ -47,67 +47,58 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Âm nhạc-5A</t>
-  </si>
-  <si>
-    <t>Lịch sử-5A</t>
-  </si>
-  <si>
-    <t>Lịch sử-4B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-3A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2A</t>
-  </si>
-  <si>
-    <t>Âm nhạc-1B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-2B</t>
-  </si>
-  <si>
-    <t>Lịch sử-5B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5B</t>
-  </si>
-  <si>
-    <t>Địa lý-5B</t>
-  </si>
-  <si>
-    <t>L T Việt-2B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-3B</t>
-  </si>
-  <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>L T Việt-2A</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Hồ Nguyễn Minh Thư</t>
   </si>
   <si>
-    <t>Địa lý-5A</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Bùi Văn Duyên</t>
   </si>
   <si>
-    <t>Địa lý-4B</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Đoàn Thị Ngọc Hiệp</t>
   </si>
   <si>
-    <t>Âm nhạc-4A</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Trương Văn Sáu</t>
   </si>
   <si>
-    <t>Đạo đức-2B</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Mai Chí Thắng</t>
   </si>
   <si>
-    <t>Âm nhạc-4B</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Đinh Văn Trực</t>
   </si>
   <si>
-    <t>Âm nhạc-2A</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Lê Thị Ánh</t>
   </si>
   <si>
-    <t>Âm nhạc-1A</t>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Cao Văn Khải</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Triệu Thị Thu Hằng</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Triệu Vĩ Đại</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Lưu Thị Phương</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Trần Thị Tao</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Pi Năng Mỹ Ba</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Hứa Văn Dũng</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Niê H Loan</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Nguyễn Thị Phương</t>
   </si>
 </sst>
 </file>
@@ -496,21 +487,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H13"/>
+      <selection activeCell="A309" sqref="A309:H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
@@ -579,16 +570,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="27">
@@ -596,19 +581,11 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -616,21 +593,11 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -647,21 +614,15 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -672,12 +633,8 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
@@ -686,16 +643,10 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
@@ -722,6 +673,2692 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="6"/>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5">
+        <v>3</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="6"/>
+      <c r="B64" s="5">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="6"/>
+      <c r="B65" s="5">
+        <v>3</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="6"/>
+      <c r="B67" s="5">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5">
+        <v>2</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5">
+        <v>3</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5">
+        <v>4</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5">
+        <v>5</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5">
+        <v>2</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="6"/>
+      <c r="B101" s="5">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5">
+        <v>4</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5">
+        <v>5</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="6"/>
+      <c r="B113" s="5">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="6"/>
+      <c r="B114" s="5">
+        <v>3</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5">
+        <v>4</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="6"/>
+      <c r="B116" s="5">
+        <v>5</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="6"/>
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="6"/>
+      <c r="B119" s="5">
+        <v>3</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="6"/>
+      <c r="B120" s="5">
+        <v>4</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="6"/>
+      <c r="B121" s="5">
+        <v>5</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="6"/>
+      <c r="B131" s="5">
+        <v>2</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="6"/>
+      <c r="B132" s="5">
+        <v>3</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5">
+        <v>4</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="6"/>
+      <c r="B134" s="5">
+        <v>5</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="6"/>
+      <c r="B136" s="5">
+        <v>2</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5">
+        <v>3</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="6"/>
+      <c r="B138" s="5">
+        <v>4</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="6"/>
+      <c r="B139" s="5">
+        <v>5</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="6"/>
+      <c r="B149" s="5">
+        <v>2</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="6"/>
+      <c r="B150" s="5">
+        <v>3</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="6"/>
+      <c r="B151" s="5">
+        <v>4</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="6"/>
+      <c r="B152" s="5">
+        <v>5</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="6"/>
+      <c r="B154" s="5">
+        <v>2</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="6"/>
+      <c r="B155" s="5">
+        <v>3</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="6"/>
+      <c r="B156" s="5">
+        <v>4</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="6"/>
+      <c r="B157" s="5">
+        <v>5</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" s="6"/>
+      <c r="B167" s="5">
+        <v>2</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" s="6"/>
+      <c r="B168" s="5">
+        <v>3</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="6"/>
+      <c r="B169" s="5">
+        <v>4</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="6"/>
+      <c r="B170" s="5">
+        <v>5</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="6"/>
+      <c r="B172" s="5">
+        <v>2</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="6"/>
+      <c r="B173" s="5">
+        <v>3</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="6"/>
+      <c r="B174" s="5">
+        <v>4</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="6"/>
+      <c r="B175" s="5">
+        <v>5</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" s="6"/>
+      <c r="B185" s="5">
+        <v>2</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="6"/>
+      <c r="B186" s="5">
+        <v>3</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="6"/>
+      <c r="B187" s="5">
+        <v>4</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="6"/>
+      <c r="B188" s="5">
+        <v>5</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="6"/>
+      <c r="B190" s="5">
+        <v>2</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="6"/>
+      <c r="B191" s="5">
+        <v>3</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="6"/>
+      <c r="B192" s="5">
+        <v>4</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="6"/>
+      <c r="B193" s="5">
+        <v>5</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" s="6"/>
+      <c r="B203" s="5">
+        <v>2</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" s="6"/>
+      <c r="B204" s="5">
+        <v>3</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" s="6"/>
+      <c r="B205" s="5">
+        <v>4</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" s="6"/>
+      <c r="B206" s="5">
+        <v>5</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" s="6"/>
+      <c r="B208" s="5">
+        <v>2</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" s="6"/>
+      <c r="B209" s="5">
+        <v>3</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210" s="6"/>
+      <c r="B210" s="5">
+        <v>4</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5">
+        <v>5</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="215" spans="1:19">
+      <c r="A215" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:19">
+      <c r="A221" s="6"/>
+      <c r="B221" s="5">
+        <v>2</v>
+      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" s="6"/>
+      <c r="B222" s="5">
+        <v>3</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:19">
+      <c r="A223" s="6"/>
+      <c r="B223" s="5">
+        <v>4</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" s="6"/>
+      <c r="B224" s="5">
+        <v>5</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:19">
+      <c r="A225" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1</v>
+      </c>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" s="6"/>
+      <c r="B226" s="5">
+        <v>2</v>
+      </c>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:19">
+      <c r="A227" s="6"/>
+      <c r="B227" s="5">
+        <v>3</v>
+      </c>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" s="6"/>
+      <c r="B228" s="5">
+        <v>4</v>
+      </c>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:19">
+      <c r="A229" s="6"/>
+      <c r="B229" s="5">
+        <v>5</v>
+      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="233" spans="1:19">
+      <c r="A233" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="237" spans="1:19">
+      <c r="A237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
+      <c r="A238" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="5">
+        <v>1</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:19">
+      <c r="A239" s="6"/>
+      <c r="B239" s="5">
+        <v>2</v>
+      </c>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:19">
+      <c r="A240" s="6"/>
+      <c r="B240" s="5">
+        <v>3</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:19">
+      <c r="A241" s="6"/>
+      <c r="B241" s="5">
+        <v>4</v>
+      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:19">
+      <c r="A242" s="6"/>
+      <c r="B242" s="5">
+        <v>5</v>
+      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:19">
+      <c r="A243" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="5">
+        <v>1</v>
+      </c>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:19">
+      <c r="A244" s="6"/>
+      <c r="B244" s="5">
+        <v>2</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:19">
+      <c r="A245" s="6"/>
+      <c r="B245" s="5">
+        <v>3</v>
+      </c>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:19">
+      <c r="A246" s="6"/>
+      <c r="B246" s="5">
+        <v>4</v>
+      </c>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:19">
+      <c r="A247" s="6"/>
+      <c r="B247" s="5">
+        <v>5</v>
+      </c>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="251" spans="1:19">
+      <c r="A251" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="255" spans="1:19">
+      <c r="A255" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
+      <c r="A256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1</v>
+      </c>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:19">
+      <c r="A257" s="6"/>
+      <c r="B257" s="5">
+        <v>2</v>
+      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:19">
+      <c r="A258" s="6"/>
+      <c r="B258" s="5">
+        <v>3</v>
+      </c>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:19">
+      <c r="A259" s="6"/>
+      <c r="B259" s="5">
+        <v>4</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:19">
+      <c r="A260" s="6"/>
+      <c r="B260" s="5">
+        <v>5</v>
+      </c>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:19">
+      <c r="A261" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1</v>
+      </c>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:19">
+      <c r="A262" s="6"/>
+      <c r="B262" s="5">
+        <v>2</v>
+      </c>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:19">
+      <c r="A263" s="6"/>
+      <c r="B263" s="5">
+        <v>3</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:19">
+      <c r="A264" s="6"/>
+      <c r="B264" s="5">
+        <v>4</v>
+      </c>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:19">
+      <c r="A265" s="6"/>
+      <c r="B265" s="5">
+        <v>5</v>
+      </c>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="269" spans="1:19">
+      <c r="A269" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="273" spans="1:19">
+      <c r="A273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19">
+      <c r="A274" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="5">
+        <v>1</v>
+      </c>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:19">
+      <c r="A275" s="6"/>
+      <c r="B275" s="5">
+        <v>2</v>
+      </c>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:19">
+      <c r="A276" s="6"/>
+      <c r="B276" s="5">
+        <v>3</v>
+      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:19">
+      <c r="A277" s="6"/>
+      <c r="B277" s="5">
+        <v>4</v>
+      </c>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:19">
+      <c r="A278" s="6"/>
+      <c r="B278" s="5">
+        <v>5</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:19">
+      <c r="A279" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="5">
+        <v>1</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:19">
+      <c r="A280" s="6"/>
+      <c r="B280" s="5">
+        <v>2</v>
+      </c>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:19">
+      <c r="A281" s="6"/>
+      <c r="B281" s="5">
+        <v>3</v>
+      </c>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:19">
+      <c r="A282" s="6"/>
+      <c r="B282" s="5">
+        <v>4</v>
+      </c>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:19">
+      <c r="A283" s="6"/>
+      <c r="B283" s="5">
+        <v>5</v>
+      </c>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="287" spans="1:19">
+      <c r="A287" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="291" spans="1:19">
+      <c r="A291" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H291" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19">
+      <c r="A292" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" s="5">
+        <v>1</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:19">
+      <c r="A293" s="6"/>
+      <c r="B293" s="5">
+        <v>2</v>
+      </c>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:19">
+      <c r="A294" s="6"/>
+      <c r="B294" s="5">
+        <v>3</v>
+      </c>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="1:19">
+      <c r="A295" s="6"/>
+      <c r="B295" s="5">
+        <v>4</v>
+      </c>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:19">
+      <c r="A296" s="6"/>
+      <c r="B296" s="5">
+        <v>5</v>
+      </c>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="1:19">
+      <c r="A297" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="5">
+        <v>1</v>
+      </c>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="1:19">
+      <c r="A298" s="6"/>
+      <c r="B298" s="5">
+        <v>2</v>
+      </c>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="1:19">
+      <c r="A299" s="6"/>
+      <c r="B299" s="5">
+        <v>3</v>
+      </c>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:19">
+      <c r="A300" s="6"/>
+      <c r="B300" s="5">
+        <v>4</v>
+      </c>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:19">
+      <c r="A301" s="6"/>
+      <c r="B301" s="5">
+        <v>5</v>
+      </c>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="305" spans="1:19">
+      <c r="A305" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="309" spans="1:19">
+      <c r="A309" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
+      <c r="A310" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" s="5">
+        <v>1</v>
+      </c>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:19">
+      <c r="A311" s="6"/>
+      <c r="B311" s="5">
+        <v>2</v>
+      </c>
+      <c r="C311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="1:19">
+      <c r="A312" s="6"/>
+      <c r="B312" s="5">
+        <v>3</v>
+      </c>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="1:19">
+      <c r="A313" s="6"/>
+      <c r="B313" s="5">
+        <v>4</v>
+      </c>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:19">
+      <c r="A314" s="6"/>
+      <c r="B314" s="5">
+        <v>5</v>
+      </c>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="1:19">
+      <c r="A315" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="5">
+        <v>1</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:19">
+      <c r="A316" s="6"/>
+      <c r="B316" s="5">
+        <v>2</v>
+      </c>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" s="6"/>
+      <c r="B317" s="5">
+        <v>3</v>
+      </c>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:19">
+      <c r="A318" s="6"/>
+      <c r="B318" s="5">
+        <v>4</v>
+      </c>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="A319" s="6"/>
+      <c r="B319" s="5">
+        <v>5</v>
+      </c>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -730,6 +3367,74 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A161:H161"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A179:H179"/>
+    <mergeCell ref="A180:H180"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A215:H215"/>
+    <mergeCell ref="A216:H216"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="A233:H233"/>
+    <mergeCell ref="A234:H234"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A251:H251"/>
+    <mergeCell ref="A252:H252"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A269:H269"/>
+    <mergeCell ref="A270:H270"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A287:H287"/>
+    <mergeCell ref="A288:H288"/>
+    <mergeCell ref="A292:A296"/>
+    <mergeCell ref="A297:A301"/>
+    <mergeCell ref="A305:H305"/>
+    <mergeCell ref="A306:H306"/>
+    <mergeCell ref="A310:A314"/>
+    <mergeCell ref="A315:A319"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>THỜI KHÓA BIỂU GIÁO VIÊN Võ Thị Thanh Cử</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Ngô Thị Kiều Diễm</t>
   </si>
   <si>
     <t>Buổi</t>
@@ -47,40 +47,43 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Chào cờ-8/2</t>
-  </si>
-  <si>
-    <t>Vật Lý-9/1</t>
-  </si>
-  <si>
-    <t>HĐNGLL-8/2</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8/2</t>
-  </si>
-  <si>
-    <t>Vật Lý-6/3</t>
-  </si>
-  <si>
-    <t>Công nghệ-9/3</t>
-  </si>
-  <si>
-    <t>Vật Lý-6/1</t>
-  </si>
-  <si>
-    <t>Vật Lý-8/2</t>
-  </si>
-  <si>
-    <t>Vật Lý-9/3</t>
-  </si>
-  <si>
-    <t>Công nghệ-9/2</t>
+    <t>Chào cờ-6/1</t>
+  </si>
+  <si>
+    <t>HĐNGLL-6/1</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-6/1</t>
+  </si>
+  <si>
+    <t>Âm nhạc-7/2</t>
+  </si>
+  <si>
+    <t>Âm nhạc-8/2</t>
+  </si>
+  <si>
+    <t>Âm nhạc-6/2</t>
+  </si>
+  <si>
+    <t>Âm nhạc-6/1</t>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>Vật Lý-6/2</t>
+    <t>Âm nhạc-7/1</t>
+  </si>
+  <si>
+    <t>Âm nhạc-7/3</t>
+  </si>
+  <si>
+    <t>Âm nhạc-8/3</t>
+  </si>
+  <si>
+    <t>Âm nhạc-6/3</t>
+  </si>
+  <si>
+    <t>Âm nhạc-8/1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
     <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
@@ -542,14 +545,12 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
@@ -558,12 +559,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -573,14 +574,14 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -590,17 +591,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -618,18 +613,20 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="27">
@@ -639,12 +636,10 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
@@ -653,10 +648,10 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -667,7 +662,9 @@
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>THỜI KHÓA BIỂU GIÁO VIÊN Ngô Thị Kiều Diễm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>THỜI KHÓA BIỂU GIÁO VIÊN Đỗ Thị Lệ</t>
   </si>
   <si>
     <t>Buổi</t>
@@ -47,43 +47,52 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Chào cờ-6/1</t>
-  </si>
-  <si>
-    <t>HĐNGLL-6/1</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6/1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7/2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8/2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6/2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6/1</t>
+    <t>Chào cờ-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Toán-2C</t>
+  </si>
+  <si>
+    <t>Tập đọc-2C</t>
+  </si>
+  <si>
+    <t>TNXH-2C</t>
+  </si>
+  <si>
+    <t>CCTV-HDTN-2C</t>
+  </si>
+  <si>
+    <t>CC Toán-2C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2C</t>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>Âm nhạc-7/1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7/3</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8/3</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6/3</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8/1</t>
+    <t>CC TV-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2C</t>
+  </si>
+  <si>
+    <t>Tập viết-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
   </si>
 </sst>
 </file>
@@ -482,12 +491,12 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="1"/>
@@ -545,13 +554,17 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
       <c r="A5" s="6"/>
@@ -559,13 +572,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -574,15 +591,17 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -591,12 +610,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -613,20 +638,20 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="27">
@@ -634,11 +659,13 @@
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -649,12 +676,20 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:19">
@@ -662,9 +697,7 @@
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
